--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3181,57 +3181,111 @@
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" s="85">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" s="17" t="n"/>
-      <c r="C12" s="56" t="n"/>
-      <c r="D12" s="19" t="n"/>
-      <c r="E12" s="17" t="n"/>
-      <c r="F12" s="17" t="n"/>
-      <c r="G12" s="19" t="n"/>
-      <c r="H12" s="19" t="n"/>
-      <c r="I12" s="20" t="n"/>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="22" t="n"/>
-      <c r="L12" s="88" t="n"/>
-      <c r="M12" s="88" t="n"/>
-      <c r="N12" s="24" t="n"/>
-      <c r="O12" s="17" t="n"/>
-      <c r="P12" s="19" t="n"/>
-      <c r="Q12" s="19" t="n"/>
-      <c r="R12" s="89" t="n"/>
-      <c r="S12" s="89" t="n"/>
-      <c r="T12" s="88" t="n"/>
-      <c r="U12" s="88" t="n"/>
-      <c r="V12" s="19" t="n"/>
-      <c r="W12" s="19" t="n"/>
-      <c r="X12" s="19" t="n"/>
-      <c r="Y12" s="19" t="n"/>
-      <c r="Z12" s="19" t="n"/>
-      <c r="AA12" s="19" t="n"/>
-      <c r="AB12" s="19" t="n"/>
-      <c r="AC12" s="19" t="n"/>
-      <c r="AD12" s="19" t="n"/>
-      <c r="AE12" s="19" t="n"/>
-      <c r="AF12" s="19" t="n"/>
-      <c r="AG12" s="19" t="n"/>
-      <c r="AH12" s="19" t="n"/>
-      <c r="AI12" s="19" t="n"/>
-      <c r="AJ12" s="19" t="n"/>
-      <c r="AK12" s="19" t="n"/>
-      <c r="AL12" s="19" t="n"/>
-      <c r="AM12" s="19" t="n"/>
-      <c r="AN12" s="19" t="n"/>
-      <c r="AO12" s="19" t="n"/>
-      <c r="AP12" s="19" t="n"/>
-      <c r="AQ12" s="19" t="n"/>
-      <c r="AR12" s="19" t="n"/>
-      <c r="AS12" s="19" t="n"/>
-      <c r="AT12" s="19" t="n"/>
-      <c r="AU12" s="19" t="n"/>
-      <c r="AV12" s="19" t="n"/>
-      <c r="AW12" s="19" t="n"/>
-      <c r="AX12" s="19" t="n"/>
-      <c r="AY12" s="26" t="n"/>
+      <c r="A12" s="16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B12" s="17" t="inlineStr">
+        <is>
+          <t>20191204</t>
+        </is>
+      </c>
+      <c r="C12" s="56" t="n">
+        <v>6666666666</v>
+      </c>
+      <c r="D12" s="19" t="inlineStr"/>
+      <c r="E12" s="17" t="inlineStr">
+        <is>
+          <t>펄</t>
+        </is>
+      </c>
+      <c r="F12" s="17" t="inlineStr">
+        <is>
+          <t>래리</t>
+        </is>
+      </c>
+      <c r="G12" s="19" t="inlineStr">
+        <is>
+          <t>서울특별시 종로구 펄길</t>
+        </is>
+      </c>
+      <c r="H12" s="19" t="inlineStr">
+        <is>
+          <t>음식점업</t>
+        </is>
+      </c>
+      <c r="I12" s="20" t="inlineStr">
+        <is>
+          <t>횟집</t>
+        </is>
+      </c>
+      <c r="J12" s="21" t="inlineStr">
+        <is>
+          <t>perl@cperl.com</t>
+        </is>
+      </c>
+      <c r="K12" s="22" t="inlineStr"/>
+      <c r="L12" s="88" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M12" s="88" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N12" s="24" t="inlineStr"/>
+      <c r="O12" s="17" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="P12" s="19" t="inlineStr">
+        <is>
+          <t>12월 CCTV용역료</t>
+        </is>
+      </c>
+      <c r="Q12" s="19" t="inlineStr"/>
+      <c r="R12" s="89" t="inlineStr"/>
+      <c r="S12" s="89" t="inlineStr"/>
+      <c r="T12" s="88" t="n">
+        <v>35000</v>
+      </c>
+      <c r="U12" s="88" t="n">
+        <v>3500</v>
+      </c>
+      <c r="V12" s="19" t="inlineStr"/>
+      <c r="W12" s="19" t="inlineStr"/>
+      <c r="X12" s="19" t="inlineStr"/>
+      <c r="Y12" s="19" t="inlineStr"/>
+      <c r="Z12" s="19" t="inlineStr"/>
+      <c r="AA12" s="19" t="inlineStr"/>
+      <c r="AB12" s="19" t="inlineStr"/>
+      <c r="AC12" s="19" t="inlineStr"/>
+      <c r="AD12" s="19" t="inlineStr"/>
+      <c r="AE12" s="19" t="inlineStr"/>
+      <c r="AF12" s="19" t="inlineStr"/>
+      <c r="AG12" s="19" t="inlineStr"/>
+      <c r="AH12" s="19" t="inlineStr"/>
+      <c r="AI12" s="19" t="inlineStr"/>
+      <c r="AJ12" s="19" t="inlineStr"/>
+      <c r="AK12" s="19" t="inlineStr"/>
+      <c r="AL12" s="19" t="inlineStr"/>
+      <c r="AM12" s="19" t="inlineStr"/>
+      <c r="AN12" s="19" t="inlineStr"/>
+      <c r="AO12" s="19" t="inlineStr"/>
+      <c r="AP12" s="19" t="inlineStr"/>
+      <c r="AQ12" s="19" t="inlineStr"/>
+      <c r="AR12" s="19" t="inlineStr"/>
+      <c r="AS12" s="19" t="inlineStr"/>
+      <c r="AT12" s="19" t="inlineStr"/>
+      <c r="AU12" s="19" t="inlineStr"/>
+      <c r="AV12" s="19" t="inlineStr"/>
+      <c r="AW12" s="19" t="inlineStr"/>
+      <c r="AX12" s="19" t="inlineStr"/>
+      <c r="AY12" s="26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="24" customHeight="1" s="85">
       <c r="A13" s="16" t="n"/>
